--- a/Documents/Obj_1.xlsx
+++ b/Documents/Obj_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="9600" yWindow="3780" windowWidth="23256" windowHeight="11388" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -16,21 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,19 +131,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부서진 발판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,42 +152,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_002</t>
-  </si>
-  <si>
-    <t>o_003</t>
-  </si>
-  <si>
-    <t>o_004</t>
-  </si>
-  <si>
-    <t>o_005</t>
-  </si>
-  <si>
     <t>obj크기 (m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1 x 0.1 x 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 x 0.5 x 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 x 1 x 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 x 1 x 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,11 +164,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 x 0.2 x 2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실험용 큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠긴 캐비닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열린 캐비닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮은 천장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거도어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 0.2m x 2.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1m x 0.1m x 0.04m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5m x 0.5m x 0.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 1m x 0.1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start0, start1
+tutorial, stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m x 1.5m x 2.1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">obj 외형 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 박혀 있는 침대를
+기용할 겁니다.
+Sf적인 느낌이 들게 하기
+위하여, 벽면에는 여러
+버튼이 있으며, 천장에는
+침대를 비추는, 사각형의
+큰 조명이 있으면 좋겠어요. 그리고, 추가로 여러 모니터 같은 게 붙어 있으면 더 좋을 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 발판이 존재하며, 버튼과 연계된 발판의 경우 
+버튼 활성화 시 3초에 걸쳐 목적 위치까지 도달함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +330,65 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +401,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,13 +436,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,11 +533,62 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,6 +598,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,20 +623,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1855692</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2012575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4132728</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1801906</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4289611</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png"/>
+        <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -417,7 +669,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11286563" y="1004047"/>
+          <a:off x="11470340" y="9854453"/>
           <a:ext cx="2277036" cy="1685365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -439,20 +691,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>448236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2079366</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1461247</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2169013</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1909482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom"/>
+        <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -472,7 +730,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9430872" y="448236"/>
+          <a:off x="9547413" y="9984442"/>
           <a:ext cx="2079365" cy="1461246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -494,20 +752,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2079810</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15483</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2113427</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2256658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg"/>
+        <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -527,7 +791,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9430870" y="224119"/>
+          <a:off x="9491381" y="9502588"/>
           <a:ext cx="2079811" cy="2077364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -549,20 +813,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2088777</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2324101</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>168091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4643716</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14873</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4869515</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2244845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg"/>
+        <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -582,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11519648" y="224119"/>
-          <a:ext cx="2554939" cy="2076754"/>
+          <a:off x="11781866" y="9491385"/>
+          <a:ext cx="2545414" cy="2076754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,20 +874,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1907894</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1846729</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2008747</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1869141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg"/>
+        <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -637,7 +913,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9430871" y="3756212"/>
+          <a:off x="9558618" y="9771530"/>
           <a:ext cx="1907894" cy="1846729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -659,20 +935,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94129</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3304071</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1792941</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3371306</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1826559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg"/>
+        <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -692,8 +974,445 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9457765" y="5611906"/>
+          <a:off x="9551894" y="9995647"/>
           <a:ext cx="3277177" cy="1792941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4687769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1930905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8195211</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3031531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17723412" y="2189441"/>
+          <a:ext cx="3507442" cy="3495484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270690</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4520045</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2508837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13311281" y="2770398"/>
+          <a:ext cx="4249355" cy="2405439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311729</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2649682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4537365</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4938881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13352320" y="5316682"/>
+          <a:ext cx="4225636" cy="2289199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4789715</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2612571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8939893</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4942760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17825358" y="5265964"/>
+          <a:ext cx="4150178" cy="2330189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>404017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4699576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4912179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15157482" y="13153910"/>
+          <a:ext cx="4537165" cy="4508162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4966607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8735786</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2564917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19961678" y="12885964"/>
+          <a:ext cx="3769179" cy="2428846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4925786</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2691637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9239250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5126156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19920857" y="15441530"/>
+          <a:ext cx="4313464" cy="2434519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,7 +1723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1024,19 +1743,19 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1066,11 +1785,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -1106,146 +1825,366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="61.19921875" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="60.8984375" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="61.19921875" customWidth="1"/>
+    <col min="6" max="7" width="28.09765625" customWidth="1"/>
+    <col min="8" max="8" width="128.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="162.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Obj_1.xlsx
+++ b/Documents/Obj_1.xlsx
@@ -220,19 +220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m x 0.2m x 2.5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1m x 0.1m x 0.04m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5m x 0.5m x 0.5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m x 1m x 0.1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +261,18 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 2.5m x 0.2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1m x 0.04m x 0.1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 0.1m x 1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,6 +590,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +639,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -707,7 +707,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +768,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +829,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -951,7 +951,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1012,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1083,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1144,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1205,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1266,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1327,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1743,19 +1743,19 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1785,11 +1785,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -1829,7 +1829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -1863,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>9</v>
@@ -1877,14 +1877,14 @@
         <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="4"/>
@@ -1897,17 +1897,17 @@
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2109,16 +2109,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
@@ -2131,14 +2131,14 @@
         <v>23</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="4"/>
@@ -2151,16 +2151,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>46</v>
+      <c r="E18" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="4"/>
@@ -2173,14 +2173,14 @@
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4" t="s">

--- a/Documents/Obj_1.xlsx
+++ b/Documents/Obj_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3D786D3A5940879A24B886E98EA31FD0405237D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF569F8-38EE-4619-8C4D-4EABD7FECF14}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3780" windowWidth="23256" windowHeight="11388" activeTab="2"/>
+    <workbookView xWindow="9600" yWindow="3780" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m x 2.5m x 0.2m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.1m x 0.04m x 0.1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,7 +641,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -707,7 +709,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +770,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +831,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +892,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -951,7 +953,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1014,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1085,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1146,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1207,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1268,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1329,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1390,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,14 +1725,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -1740,9 +1742,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -1777,21 +1779,21 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1824,26 +1826,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="24" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="61.19921875" customWidth="1"/>
-    <col min="6" max="7" width="28.09765625" customWidth="1"/>
-    <col min="8" max="8" width="128.3984375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="61.25" customWidth="1"/>
+    <col min="6" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="128.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1883,13 +1885,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1911,7 +1910,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="145.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1959,7 +1958,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1975,7 +1974,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1990,7 +1989,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2038,7 +2037,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2054,7 +2053,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2070,7 +2069,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2086,7 +2085,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2101,7 +2100,7 @@
       <c r="F15" s="9"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2118,12 +2117,12 @@
         <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2143,7 +2142,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2160,12 +2159,12 @@
         <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4" t="s">
